--- a/biology/Botanique/Square_Eugène-Varlin/Square_Eugène-Varlin.xlsx
+++ b/biology/Botanique/Square_Eugène-Varlin/Square_Eugène-Varlin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Square_Eug%C3%A8ne-Varlin</t>
+          <t>Square_Eugène-Varlin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le square Eugène-Varlin est un espace vert du 10e arrondissement de Paris, dans le quartier de l'Hôpital-Saint-Louis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Square_Eug%C3%A8ne-Varlin</t>
+          <t>Square_Eugène-Varlin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est situé à proximité de la rue Eugène-Varlin, à l'angle du quai de Valmy et du pont Maria Casarès.
 Le square est desservi à proximité par la ligne 7 à la station Château-Landon.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Square_Eug%C3%A8ne-Varlin</t>
+          <t>Square_Eugène-Varlin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est nommé en hommage à Eugène Varlin (1839-1871), ouvrier relieur, militant socialiste et communard.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Square_Eug%C3%A8ne-Varlin</t>
+          <t>Square_Eugène-Varlin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,6 +592,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -583,7 +601,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Square_Eug%C3%A8ne-Varlin</t>
+          <t>Square_Eugène-Varlin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,9 +619,11 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'entrée du square, une plaque est dédiée à Charles Dupas[1], aspirant de réserve du Génie et soldat des FFI, tué à 29 ans le 21 août 1944 au 159, quai de Valmy à Paris.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'entrée du square, une plaque est dédiée à Charles Dupas, aspirant de réserve du Génie et soldat des FFI, tué à 29 ans le 21 août 1944 au 159, quai de Valmy à Paris.
 			Plaque dédiée à Charles Dupas.
 </t>
         </is>
